--- a/biology/Botanique/Butschliellaceae/Butschliellaceae.xlsx
+++ b/biology/Botanique/Butschliellaceae/Butschliellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Butschliellaceae sont une famille d'algues de l'embranchement des Cryptista, de la classe des Cryptophyceae et de l’ordre des Cryptomonadales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Butschliella, donné en mémoire du naturaliste allemand Otto Bütschli.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre type Butschliella est une monades nageuses, quadriflagellées, dorso-ventral asymétriques, comprimées ou non. La forme de l'organisme est variable selon l'angle auquel est examiné : en vue ventrale, il est obliquement ovale avec des extrémités arrondies, en vue latérale, il a une marge ventrale concave et une marge dorsale convexe.
-Les flagelles sont égaux, insérés au milieu de la partie centrale. On observe : trois chloroplastes olivacés, trois pyrénoïdes, une seule vacuole contractile près de la base des flagelles, deux à trois granules d'amidon et un noyau en position centrale[1].
+Les flagelles sont égaux, insérés au milieu de la partie centrale. On observe : trois chloroplastes olivacés, trois pyrénoïdes, une seule vacuole contractile près de la base des flagelles, deux à trois granules d'amidon et un noyau en position centrale.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Butschliella est un genre d'eau douce peu connu, enregistré seulement dans l'eau impure et froide d'un fossé près de Harbin, Manchourie du nord, Chine[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Butschliella est un genre d'eau douce peu connu, enregistré seulement dans l'eau impure et froide d'un fossé près de Harbin, Manchourie du nord, Chine.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (26 août 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (26 août 2022) :
 Butschliella Skvortzov, 1968
 Butschliella olivacea Skvortzov, 1968
 Skvortzoviella Bourrelly, 1970
@@ -639,15 +659,17 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Butschliellaceae Skvortzov, 1968[1].
-Homonymie du nom de genre Butschliella[2]
-En 1908 Casimir Cépède (d) avait créé la sous-familles des Butschliellinae avec comme espèce type Butschliella opheliae Awer. (décrite par  Sergei Wassiljewitsch Awerinzew)[3]. En 1922, le biologiste suisse Eugène Penard y ajouta l'espèce Butschliella chaetogastri[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Butschliellaceae Skvortzov, 1968.
+Homonymie du nom de genre Butschliella
+En 1908 Casimir Cépède (d) avait créé la sous-familles des Butschliellinae avec comme espèce type Butschliella opheliae Awer. (décrite par  Sergei Wassiljewitsch Awerinzew). En 1922, le biologiste suisse Eugène Penard y ajouta l'espèce Butschliella chaetogastri.
 Le nom de genre synonyme Buetschliella Awer., 1908, est aussi utilisé pour nommer ces deux espèces (famille des Buetschliidae). 
 En 1935 le genre Bütschliella fut à nouveau utilisé pour désigner 5 espèces de la famille des Buetschliidae.
-Les taxons précédents font tous partie de l'embranchement des Ciliophora ou ciliés (protozoaires unicellulaires)[5],[6].
-Seul le genre Butschliella Skvortzov, 1968 appartient à l'embranchement des Cryptista[7].
+Les taxons précédents font tous partie de l'embranchement des Ciliophora ou ciliés (protozoaires unicellulaires),.
+Seul le genre Butschliella Skvortzov, 1968 appartient à l'embranchement des Cryptista.
 </t>
         </is>
       </c>
